--- a/ApolloQA/Data/RatingManual/GA/VA00070.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00070.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.ClassCodeFactors" sheetId="1" r:id="R44dbaf17fb3f42ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.ClassCodeFactors" sheetId="1" r:id="Rffe82403d7ca4e30"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,106 +12,138 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Class Code</x:v>
+        <x:v>Organization Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Class Code Factor</x:v>
+        <x:v>Organization Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>701</x:v>
+        <x:v>Churches and Religious Organizations</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2194</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>703</x:v>
+        <x:v>Corporation</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8320</x:v>
+        <x:v>0.8500</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>704</x:v>
+        <x:v>Counties/Townships/Parishes, Etc.</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0062</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>705</x:v>
+        <x:v>Districts/Precincts</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1390</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>801</x:v>
+        <x:v>Federal</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3098</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>826</x:v>
+        <x:v>Indian Tribes</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2394</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>840</x:v>
+        <x:v>Individual</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5214</x:v>
+        <x:v>1.1549</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>855</x:v>
+        <x:v>LLC</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3648</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>856</x:v>
+        <x:v>Municipality</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0012</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>859</x:v>
+        <x:v>Other</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2960</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1607</x:v>
+        <x:v>Other Non-Profit Associations and Organizations</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7785</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1631</x:v>
+        <x:v>Partnership</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9920</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Rural</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Schools</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Social Service Agencies and Organizations</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>States</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
